--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -14,21 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
-  <si>
-    <t>功能</t>
-  </si>
-  <si>
-    <t>外设</t>
-  </si>
-  <si>
-    <t>io功能</t>
-  </si>
-  <si>
-    <t>端口</t>
-  </si>
-  <si>
-    <t>pin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Periph</t>
+  </si>
+  <si>
+    <t>IO Function</t>
+  </si>
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Channel</t>
   </si>
   <si>
     <t>Reserved</t>
@@ -58,7 +67,7 @@
     <t>OLED</t>
   </si>
   <si>
-    <t>SPI0</t>
+    <t>SPI1</t>
   </si>
   <si>
     <t>MOSI</t>
@@ -67,7 +76,7 @@
     <t>CLK</t>
   </si>
   <si>
-    <t>CS</t>
+    <t>General IO Output</t>
   </si>
   <si>
     <t>DC</t>
@@ -91,7 +100,7 @@
     <t>QFLASH</t>
   </si>
   <si>
-    <t>SPI1</t>
+    <t>SPI2</t>
   </si>
   <si>
     <t>SPI FLASH</t>
@@ -101,7 +110,7 @@
 BackUp SPI Bus</t>
   </si>
   <si>
-    <t>SPI</t>
+    <t>SPI3</t>
   </si>
   <si>
     <t>CAN</t>
@@ -201,9 +210,6 @@
   <si>
     <t>Sync Signal 
 Output</t>
-  </si>
-  <si>
-    <t>General IO Output</t>
   </si>
   <si>
     <t>PPM</t>
@@ -1169,13 +1175,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.2857142857143" style="1" customWidth="1"/>
@@ -1183,7 +1189,7 @@
     <col min="4" max="4" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1199,115 +1205,129 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="4"/>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="4"/>
@@ -1315,255 +1335,252 @@
     <row r="17" spans="2:2">
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" ht="18" spans="1:2">
+    <row r="18" ht="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" ht="18" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="1:2">
-      <c r="A23" s="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="18" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" ht="36" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="36" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="36" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="36" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:2">
       <c r="A35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" ht="36" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>51</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" ht="36" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" ht="36" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" ht="36" spans="1:2">
-      <c r="A47" s="5" t="s">
-        <v>58</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1572,22 +1589,22 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A47:A48"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -97,7 +97,7 @@
     <t>FMC</t>
   </si>
   <si>
-    <t>QFLASH</t>
+    <t>QSPI FLASH</t>
   </si>
   <si>
     <t>SPI2</t>
@@ -107,7 +107,7 @@
   </si>
   <si>
     <t>ESP32 Communicate
-BackUp SPI Bus</t>
+BackUp Bus</t>
   </si>
   <si>
     <t>SPI3</t>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A21" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>Function</t>
   </si>
@@ -52,18 +52,45 @@
     <t>GPIOA</t>
   </si>
   <si>
+    <t>Pin_9</t>
+  </si>
+  <si>
     <t>RX</t>
   </si>
   <si>
+    <t>Pin_10</t>
+  </si>
+  <si>
     <t>USART2</t>
   </si>
   <si>
+    <t>Pin_2</t>
+  </si>
+  <si>
+    <t>Pin_3</t>
+  </si>
+  <si>
     <t>USART3</t>
   </si>
   <si>
+    <t>GPIOB</t>
+  </si>
+  <si>
+    <t>Pin_11</t>
+  </si>
+  <si>
     <t>USART6</t>
   </si>
   <si>
+    <t>GPIOC</t>
+  </si>
+  <si>
+    <t>Pin_6</t>
+  </si>
+  <si>
+    <t>Pin_7</t>
+  </si>
+  <si>
     <t>OLED</t>
   </si>
   <si>
@@ -73,6 +100,9 @@
     <t>MOSI</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>CLK</t>
   </si>
   <si>
@@ -82,7 +112,16 @@
     <t>DC</t>
   </si>
   <si>
+    <t>GPIOD</t>
+  </si>
+  <si>
+    <t>Pin_1</t>
+  </si>
+  <si>
     <t>RS</t>
+  </si>
+  <si>
+    <t>Pin_0</t>
   </si>
   <si>
     <t>TF Card</t>
@@ -855,6 +894,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,7 +1220,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1186,7 +1228,7 @@
     <col min="1" max="1" width="21.2857142857143" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.9642857142857" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.14285714285714" style="1"/>
+    <col min="4" max="5" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1215,7 +1257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:4">
+    <row r="2" ht="17" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1228,102 +1270,151 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="3:4">
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
       <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:3">
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="3:3">
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="3:3">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
       <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:2">
@@ -1337,254 +1428,254 @@
     </row>
     <row r="18" ht="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4"/>
     </row>
     <row r="21" ht="18" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="18" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" ht="18" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" ht="18" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="36" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="36" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="36" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="36" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" ht="36" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" ht="36" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1605,6 +1696,10 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12140"/>
+    <workbookView windowWidth="28800" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>Function</t>
   </si>
@@ -100,12 +100,12 @@
     <t>MOSI</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>CLK</t>
   </si>
   <si>
+    <t>Pin_5</t>
+  </si>
+  <si>
     <t>General IO Output</t>
   </si>
   <si>
@@ -136,13 +136,23 @@
     <t>FMC</t>
   </si>
   <si>
-    <t>QSPI FLASH</t>
+    <t>QSPI FLASH
+SPI FLASH</t>
   </si>
   <si>
     <t>SPI2</t>
   </si>
   <si>
-    <t>SPI FLASH</t>
+    <t>Pin_15</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>Pin_14</t>
+  </si>
+  <si>
+    <t>Pin_ 13</t>
   </si>
   <si>
     <t>ESP32 Communicate
@@ -152,6 +162,9 @@
     <t>SPI3</t>
   </si>
   <si>
+    <t>Pin_12</t>
+  </si>
+  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -161,19 +174,34 @@
     <t>Axis X Analog Input</t>
   </si>
   <si>
+    <t>ADC1_Channel0</t>
+  </si>
+  <si>
+    <t>Axis Y Analog Input</t>
+  </si>
+  <si>
+    <t>ADC1_Channel1</t>
+  </si>
+  <si>
+    <t>Gimbal Right</t>
+  </si>
+  <si>
+    <t>ADC1_Channel4</t>
+  </si>
+  <si>
+    <t>Pin_4</t>
+  </si>
+  <si>
+    <t>ADC1_Channel6</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Left Analog Input</t>
+  </si>
+  <si>
     <t>ADC1_ChannelX</t>
-  </si>
-  <si>
-    <t>Axis Y Analog Input</t>
-  </si>
-  <si>
-    <t>Gimbal Right</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>Left Analog Input</t>
   </si>
   <si>
     <t>Right Analog Input</t>
@@ -268,12 +296,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,8 +310,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,6 +355,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -306,47 +426,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,22 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,44 +461,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -435,187 +471,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,6 +683,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,32 +702,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -703,6 +722,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -717,166 +762,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,18 +920,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,28 +1247,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.2857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.9642857142857" style="3" customWidth="1"/>
+    <col min="1" max="2" width="21.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.9642857142857" style="2" customWidth="1"/>
     <col min="4" max="5" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1258,13 +1287,13 @@
       </c>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1275,22 +1304,21 @@
       </c>
     </row>
     <row r="3" spans="3:5">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1301,22 +1329,21 @@
       </c>
     </row>
     <row r="5" spans="3:5">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1327,22 +1354,21 @@
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1353,31 +1379,37 @@
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1385,7 +1417,7 @@
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1399,214 +1431,282 @@
       <c r="B13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" ht="18" spans="1:2">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="1:3">
-      <c r="A23" s="2" t="s">
+    <row r="22" ht="18" spans="1:5">
+      <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="1" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" ht="18" spans="1:3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="26" ht="18" spans="1:5">
+      <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
       <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="C27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" ht="36" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" ht="36" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="1:2">
-      <c r="A33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" ht="36" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>62</v>
+      <c r="A34" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>63</v>
+      <c r="A35" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>64</v>
+      <c r="A36" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" ht="36" spans="1:2">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="36" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" ht="36" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>67</v>
+      <c r="A40" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>68</v>
@@ -1614,92 +1714,118 @@
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" ht="36" spans="1:2">
-      <c r="A45" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" ht="36" spans="1:2">
-      <c r="A46" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
       <c r="B46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" ht="36" spans="1:2">
+      <c r="A48" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" ht="36" spans="1:2">
+      <c r="A49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="32">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A50:A51"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D30:D31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>Function</t>
   </si>
@@ -201,13 +201,19 @@
     <t>Left Analog Input</t>
   </si>
   <si>
-    <t>ADC1_ChannelX</t>
+    <t>ADC1_Channel8</t>
   </si>
   <si>
     <t>Right Analog Input</t>
   </si>
   <si>
+    <t>ADC1_Channel9</t>
+  </si>
+  <si>
     <t>Voltage Detect</t>
+  </si>
+  <si>
+    <t>ADC1_Channel10</t>
   </si>
   <si>
     <t>Power Button</t>
@@ -226,6 +232,9 @@
     <t>General IO Input</t>
   </si>
   <si>
+    <t>IO</t>
+  </si>
+  <si>
     <t>Right
 Shoulder Button</t>
   </si>
@@ -250,6 +259,9 @@
   </si>
   <si>
     <t>EXTI Input</t>
+  </si>
+  <si>
+    <t>EXTI</t>
   </si>
   <si>
     <t>5 Direction
@@ -1249,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1624,7 +1636,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
@@ -1633,10 +1645,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>22</v>
@@ -1647,153 +1659,185 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" ht="36" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" ht="36" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" ht="36" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" ht="36" spans="1:2">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" ht="36" spans="1:3">
       <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" ht="36" spans="1:2">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" ht="36" spans="1:3">
       <c r="A37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" ht="36" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" ht="36" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" ht="36" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" ht="36" spans="1:2">
-      <c r="A39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+    </row>
+    <row r="44" spans="2:3">
       <c r="B44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" ht="36" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" ht="36" spans="1:2">
-      <c r="A48" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" ht="36" spans="1:2">
+    <row r="49" ht="36" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C49" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="35">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
@@ -1816,6 +1860,9 @@
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C47"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>Function</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>SDIO</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>Pin_8</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>Pin_12</t>
   </si>
   <si>
     <t>SDRAM</t>
@@ -162,9 +180,6 @@
     <t>SPI3</t>
   </si>
   <si>
-    <t>Pin_12</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -298,6 +313,15 @@
   </si>
   <si>
     <t>USB Port</t>
+  </si>
+  <si>
+    <t>USB D-</t>
+  </si>
+  <si>
+    <t>USB PORT</t>
+  </si>
+  <si>
+    <t>USB D+</t>
   </si>
   <si>
     <t>USB Detect</t>
@@ -1259,10 +1283,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1451,428 +1475,494 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
       <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="2:2">
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
       <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="2:2">
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" ht="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
+      <c r="C17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
+    <row r="26" ht="18" spans="1:2">
+      <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" ht="18" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
+    <row r="28" spans="2:5">
+      <c r="B28" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" ht="36" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>69</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="36" ht="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" ht="36" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" ht="36" spans="1:3">
       <c r="A38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" ht="36" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>77</v>
+    <row r="40" ht="36" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
       <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" ht="36" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>86</v>
-      </c>
+    <row r="48" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" ht="36" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" ht="36" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
+      <c r="C50" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="C52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="39">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C35:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D14:D18"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D53:D54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/DOC/IO list.xlsx
+++ b/DOC/IO list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
   <si>
     <t>Function</t>
   </si>
@@ -40,6 +40,37 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>USB Port</t>
+  </si>
+  <si>
+    <t>USB D-</t>
+  </si>
+  <si>
+    <t>USB
+PORT</t>
+  </si>
+  <si>
+    <t>GPIOA</t>
+  </si>
+  <si>
+    <t>Pin_11</t>
+  </si>
+  <si>
+    <t>USB D+</t>
+  </si>
+  <si>
+    <t>Pin_12</t>
+  </si>
+  <si>
+    <t>USB Detect</t>
+  </si>
+  <si>
+    <t>EXTI Input</t>
+  </si>
+  <si>
+    <t>EXTI</t>
+  </si>
+  <si>
     <t>Reserved</t>
   </si>
   <si>
@@ -49,9 +80,6 @@
     <t>TX</t>
   </si>
   <si>
-    <t>GPIOA</t>
-  </si>
-  <si>
     <t>Pin_9</t>
   </si>
   <si>
@@ -76,9 +104,6 @@
     <t>GPIOB</t>
   </si>
   <si>
-    <t>Pin_11</t>
-  </si>
-  <si>
     <t>USART6</t>
   </si>
   <si>
@@ -143,9 +168,6 @@
   </si>
   <si>
     <t>D3</t>
-  </si>
-  <si>
-    <t>Pin_12</t>
   </si>
   <si>
     <t>SDRAM</t>
@@ -177,9 +199,6 @@
 BackUp Bus</t>
   </si>
   <si>
-    <t>SPI3</t>
-  </si>
-  <si>
     <t>CAN</t>
   </si>
   <si>
@@ -273,12 +292,6 @@
     <t>Encoder</t>
   </si>
   <si>
-    <t>EXTI Input</t>
-  </si>
-  <si>
-    <t>EXTI</t>
-  </si>
-  <si>
     <t>5 Direction
 Button</t>
   </si>
@@ -310,21 +323,6 @@
   </si>
   <si>
     <t>Timer</t>
-  </si>
-  <si>
-    <t>USB Port</t>
-  </si>
-  <si>
-    <t>USB D-</t>
-  </si>
-  <si>
-    <t>USB PORT</t>
-  </si>
-  <si>
-    <t>USB D+</t>
-  </si>
-  <si>
-    <t>USB Detect</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
@@ -1322,14 +1320,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1339,630 +1337,601 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="3:5">
-      <c r="C3" s="2" t="s">
+    <row r="3" customFormat="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" customFormat="1" ht="17" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="3"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" ht="18" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="3"/>
       <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3"/>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
       <c r="B24" s="3"/>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3"/>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="1:2">
-      <c r="A26" s="3"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" ht="36" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" ht="18" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="18" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" ht="36" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" ht="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1"/>
     </row>
     <row r="37" ht="36" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" s="1"/>
     </row>
     <row r="38" ht="36" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1"/>
     </row>
     <row r="39" ht="36" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1"/>
     </row>
     <row r="40" ht="36" spans="1:3">
       <c r="A40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1"/>
     </row>
     <row r="49" ht="36" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="36" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
       <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="36">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B21"/>
     <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="C35:C41"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C53:C54"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D18"/>
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D21"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D53:D54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
